--- a/testData/testDataCoursera.xlsx
+++ b/testData/testDataCoursera.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="117">
   <si>
     <t>Courses</t>
   </si>
@@ -358,6 +358,39 @@
   </si>
   <si>
     <t>Hungarian (662)</t>
+  </si>
+  <si>
+    <t>Beginner(879)</t>
+  </si>
+  <si>
+    <t>Intermediate(771)</t>
+  </si>
+  <si>
+    <t>English (1,630)</t>
+  </si>
+  <si>
+    <t>Web Design for Everybody: Basics of Web Development &amp; Coding</t>
+  </si>
+  <si>
+    <t>Beginner (881)</t>
+  </si>
+  <si>
+    <t>Intermediate (775)</t>
+  </si>
+  <si>
+    <t>Advanced (80)</t>
+  </si>
+  <si>
+    <t>Mixed (148)</t>
+  </si>
+  <si>
+    <t>English (1,637)</t>
+  </si>
+  <si>
+    <t>Beginner (880)</t>
+  </si>
+  <si>
+    <t>English (1,636)</t>
   </si>
 </sst>
 </file>
@@ -800,22 +833,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +876,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">

--- a/testData/testDataCoursera.xlsx
+++ b/testData/testDataCoursera.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="166">
   <si>
     <t>Courses</t>
   </si>
@@ -391,6 +391,153 @@
   </si>
   <si>
     <t>English (1,636)</t>
+  </si>
+  <si>
+    <t>Beginner (882)</t>
+  </si>
+  <si>
+    <t>Intermediate (776)</t>
+  </si>
+  <si>
+    <t>English (1,639)</t>
+  </si>
+  <si>
+    <t>Spanish (1,099)</t>
+  </si>
+  <si>
+    <t>Arabic (1,010)</t>
+  </si>
+  <si>
+    <t>French (995)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (988)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (986)</t>
+  </si>
+  <si>
+    <t>German (975)</t>
+  </si>
+  <si>
+    <t>Indonesian (974)</t>
+  </si>
+  <si>
+    <t>Hindi (970)</t>
+  </si>
+  <si>
+    <t>Italian (969)</t>
+  </si>
+  <si>
+    <t>Swedish (968)</t>
+  </si>
+  <si>
+    <t>Dutch (967)</t>
+  </si>
+  <si>
+    <t>Greek (967)</t>
+  </si>
+  <si>
+    <t>Polish (967)</t>
+  </si>
+  <si>
+    <t>Thai (967)</t>
+  </si>
+  <si>
+    <t>Turkish (967)</t>
+  </si>
+  <si>
+    <t>Ukrainian (967)</t>
+  </si>
+  <si>
+    <t>Russian (944)</t>
+  </si>
+  <si>
+    <t>Kazakh (893)</t>
+  </si>
+  <si>
+    <t>Hungarian (696)</t>
+  </si>
+  <si>
+    <t>Japanese (89)</t>
+  </si>
+  <si>
+    <t>Korean (87)</t>
+  </si>
+  <si>
+    <t>Beginner (884)</t>
+  </si>
+  <si>
+    <t>Intermediate (779)</t>
+  </si>
+  <si>
+    <t>Mixed (149)</t>
+  </si>
+  <si>
+    <t>English (1,645)</t>
+  </si>
+  <si>
+    <t>Spanish (1,101)</t>
+  </si>
+  <si>
+    <t>Arabic (1,012)</t>
+  </si>
+  <si>
+    <t>French (997)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (993)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (988)</t>
+  </si>
+  <si>
+    <t>German (977)</t>
+  </si>
+  <si>
+    <t>Indonesian (976)</t>
+  </si>
+  <si>
+    <t>Hindi (972)</t>
+  </si>
+  <si>
+    <t>Italian (971)</t>
+  </si>
+  <si>
+    <t>Swedish (970)</t>
+  </si>
+  <si>
+    <t>Dutch (969)</t>
+  </si>
+  <si>
+    <t>Greek (969)</t>
+  </si>
+  <si>
+    <t>Polish (969)</t>
+  </si>
+  <si>
+    <t>Thai (969)</t>
+  </si>
+  <si>
+    <t>Turkish (969)</t>
+  </si>
+  <si>
+    <t>Ukrainian (969)</t>
+  </si>
+  <si>
+    <t>Russian (946)</t>
+  </si>
+  <si>
+    <t>Kazakh (894)</t>
+  </si>
+  <si>
+    <t>Hungarian (697)</t>
+  </si>
+  <si>
+    <t>Japanese (90)</t>
+  </si>
+  <si>
+    <t>Korean (88)</t>
   </si>
 </sst>
 </file>
@@ -833,12 +980,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -848,7 +995,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -876,112 +1023,112 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
